--- a/excelfile/book.xlsx
+++ b/excelfile/book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303983\Downloads\NewsArround (1)\projectlast1st\excelfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A5411D-61B6-475D-8732-379DF18AA984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F2580-C3E0-46F1-87CE-21FD41EBE8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,37 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="73">
-  <si>
-    <t>Hunt Auto Detailing</t>
-  </si>
-  <si>
-    <t>07947431029</t>
-  </si>
-  <si>
-    <t>Zippy Car Care</t>
-  </si>
-  <si>
-    <t>07947425268</t>
-  </si>
-  <si>
-    <t>Autosparks</t>
-  </si>
-  <si>
-    <t>07947431371</t>
-  </si>
-  <si>
-    <t>Win - Wash It Now Cars &amp; Bikes</t>
-  </si>
-  <si>
-    <t>07947431070</t>
-  </si>
-  <si>
-    <t>Vijay Water Wash</t>
-  </si>
-  <si>
-    <t>07947431208</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Please Enter a Valid Mobile Number</t>
   </si>
@@ -99,6 +69,45 @@
     <t>Distance</t>
   </si>
   <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>3.5+</t>
+  </si>
+  <si>
+    <t>4.0+</t>
+  </si>
+  <si>
+    <t>4.5+</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>carwash name</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Freelist Error message</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
     <t>24 Hours Open</t>
   </si>
   <si>
@@ -117,133 +126,67 @@
     <t>Free Trial</t>
   </si>
   <si>
+    <t>Nutritional Support</t>
+  </si>
+  <si>
     <t>Group Classes</t>
   </si>
   <si>
     <t>Separate Batches for Women</t>
   </si>
   <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>3.5+</t>
-  </si>
-  <si>
-    <t>4.0+</t>
-  </si>
-  <si>
-    <t>4.5+</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>carwash name</t>
-  </si>
-  <si>
-    <t>phone number</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>Freelist Error message</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>4th</t>
-  </si>
-  <si>
     <t>5k Car Care</t>
   </si>
   <si>
-    <t>07947428675</t>
-  </si>
-  <si>
     <t>Vasu Motors</t>
   </si>
   <si>
-    <t>07947429004</t>
-  </si>
-  <si>
     <t>F1 Car Wash And Detailing</t>
   </si>
   <si>
-    <t>07947429286</t>
+    <t>Women Only</t>
+  </si>
+  <si>
+    <t>The Detailing Mafia Omr</t>
+  </si>
+  <si>
+    <t>07947426214</t>
   </si>
   <si>
     <t>Route69 Garage</t>
   </si>
   <si>
-    <t>07947429806</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>07947431293</t>
-  </si>
-  <si>
-    <t>07942696009</t>
-  </si>
-  <si>
-    <t>07942696174</t>
-  </si>
-  <si>
-    <t>07942696338</t>
-  </si>
-  <si>
-    <t>07942696797</t>
-  </si>
-  <si>
-    <t>07942696768</t>
-  </si>
-  <si>
-    <t>07947109325</t>
-  </si>
-  <si>
-    <t>07947109483</t>
-  </si>
-  <si>
-    <t>07947109688</t>
-  </si>
-  <si>
-    <t>07947109695</t>
-  </si>
-  <si>
-    <t>07947144657</t>
-  </si>
-  <si>
-    <t>07947144452</t>
-  </si>
-  <si>
-    <t>07947145400</t>
-  </si>
-  <si>
-    <t>07947144408</t>
-  </si>
-  <si>
-    <t>07947144521</t>
-  </si>
-  <si>
-    <t>Deals</t>
+    <t>07947105795</t>
+  </si>
+  <si>
+    <t>07947103932</t>
+  </si>
+  <si>
+    <t>07947103009</t>
+  </si>
+  <si>
+    <t>07947108437</t>
   </si>
   <si>
     <t>Sunday Open</t>
   </si>
   <si>
-    <t>Nutritional Support</t>
-  </si>
-  <si>
-    <t>Women Only</t>
+    <t>07942681914</t>
+  </si>
+  <si>
+    <t>07947111333</t>
+  </si>
+  <si>
+    <t>07947111583</t>
+  </si>
+  <si>
+    <t>07942681980</t>
+  </si>
+  <si>
+    <t>Munish Car Care</t>
+  </si>
+  <si>
+    <t>07942682176</t>
   </si>
 </sst>
 </file>
@@ -564,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,188 +525,194 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>287.0</v>
+        <v>290.0</v>
       </c>
       <c r="F2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="H2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>20</v>
-      </c>
       <c r="K2" t="s" s="0">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>73.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>125.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>67</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>106.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>67.0</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="0">
+        <v>173</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H7" t="s" s="0">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H8" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>23.0</v>
+      </c>
       <c r="H9" t="s" s="0">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H10" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="H11" t="s" s="0">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
